--- a/Thesis_project/01_data-input/wiiw/pop_lifexp.xlsx
+++ b/Thesis_project/01_data-input/wiiw/pop_lifexp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1787E6F-06E1-44A2-9834-3A81EC771B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA21AEB2-82FB-4FDE-9DD9-38B1C46B7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>http://wiiw.ac.at/annual-database.html</t>
+  </si>
+  <si>
+    <t>BA00</t>
+  </si>
+  <si>
+    <t>MD00</t>
+  </si>
+  <si>
+    <t>XK00</t>
   </si>
 </sst>
 </file>
@@ -144,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -178,6 +187,10 @@
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1629,11 +1642,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDD724A-3DB3-4E5B-A76D-43010B908100}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1721,10 +1734,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1733,734 +1746,217 @@
         <v>16</v>
       </c>
       <c r="E2" s="3">
-        <v>3060.9079999999999</v>
+        <v>3781</v>
       </c>
       <c r="F2" s="3">
-        <v>3060.1729999999998</v>
+        <v>3798</v>
       </c>
       <c r="G2" s="3">
-        <v>3051.01</v>
+        <v>3828</v>
       </c>
       <c r="H2" s="3">
-        <v>3039.616</v>
+        <v>3832</v>
       </c>
       <c r="I2" s="3">
-        <v>3026.9389999999999</v>
+        <v>3842</v>
       </c>
       <c r="J2" s="3">
-        <v>3011.4870000000001</v>
+        <v>3843</v>
       </c>
       <c r="K2" s="3">
-        <v>2992.547</v>
+        <v>3842.7620000000002</v>
       </c>
       <c r="L2" s="3">
-        <v>2970.0169999999998</v>
+        <v>3842.942</v>
       </c>
       <c r="M2" s="3">
-        <v>2947.3139999999999</v>
+        <v>3842.2649999999999</v>
       </c>
       <c r="N2" s="3">
-        <v>2927.5189999999998</v>
+        <v>3843</v>
       </c>
       <c r="O2" s="3">
-        <v>2913.0210000000002</v>
+        <v>3843.1260000000002</v>
       </c>
       <c r="P2" s="3">
-        <v>2905.1950000000002</v>
+        <v>3839.7370000000001</v>
       </c>
       <c r="Q2" s="3">
-        <v>2900.4009999999998</v>
+        <v>3836.377</v>
       </c>
       <c r="R2" s="3">
-        <v>2895.0920000000001</v>
+        <v>3531.1590000000001</v>
       </c>
       <c r="S2" s="3">
-        <v>2889.1039999999998</v>
+        <v>3526</v>
       </c>
       <c r="T2" s="3">
-        <v>2880.703</v>
+        <v>3518</v>
       </c>
       <c r="U2" s="3">
-        <v>2876.1010000000001</v>
+        <v>3511</v>
       </c>
       <c r="V2" s="3">
-        <v>2873.4569999999999</v>
+        <v>3504</v>
       </c>
       <c r="W2" s="3">
-        <v>2866.3760000000002</v>
+        <v>3496</v>
       </c>
       <c r="X2" s="3">
-        <v>2854.1909999999998</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3">
-        <v>72.099999999999994</v>
+        <v>1588</v>
       </c>
       <c r="F3" s="3">
-        <v>72.099999999999994</v>
+        <v>1589</v>
       </c>
       <c r="G3" s="3">
-        <v>72.099999999999994</v>
+        <v>1590</v>
       </c>
       <c r="H3" s="3">
-        <v>72.099999999999994</v>
+        <v>1591</v>
       </c>
       <c r="I3" s="3">
-        <v>71.569999999999993</v>
+        <v>1592.0239999999999</v>
       </c>
       <c r="J3" s="3">
-        <v>72.05</v>
+        <v>1622.239</v>
       </c>
       <c r="K3" s="3">
-        <v>72.599999999999994</v>
+        <v>1651.011</v>
       </c>
       <c r="L3" s="3">
-        <v>72.7</v>
+        <v>1678.355</v>
       </c>
       <c r="M3" s="3">
-        <v>73.2</v>
+        <v>1719.575</v>
       </c>
       <c r="N3" s="3">
-        <v>73.900000000000006</v>
+        <v>1747.3589999999999</v>
       </c>
       <c r="O3" s="3">
-        <v>74.7</v>
+        <v>1775</v>
       </c>
       <c r="P3" s="3">
-        <v>75.3</v>
+        <v>1796.413</v>
       </c>
       <c r="Q3" s="3">
-        <v>75.5</v>
+        <v>1807.126</v>
       </c>
       <c r="R3" s="3">
-        <v>75.8</v>
+        <v>1818.1189999999999</v>
       </c>
       <c r="S3" s="3">
-        <v>76.2</v>
+        <v>1812.788</v>
       </c>
       <c r="T3" s="3">
-        <v>76.099999999999994</v>
+        <v>1788.2739999999999</v>
       </c>
       <c r="U3" s="3">
-        <v>77</v>
+        <v>1777.568</v>
       </c>
       <c r="V3" s="3">
-        <v>77.099999999999994</v>
+        <v>1791.019</v>
       </c>
       <c r="W3" s="3">
-        <v>77.400000000000006</v>
+        <v>1797.086</v>
       </c>
       <c r="X3" s="3">
-        <v>77.599999999999994</v>
+        <v>1788.8910000000001</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>78.599999999999994</v>
+        <v>3639.5920000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>78.599999999999994</v>
+        <v>3631.462</v>
       </c>
       <c r="G4" s="3">
-        <v>78.599999999999994</v>
+        <v>3623.0619999999999</v>
       </c>
       <c r="H4" s="3">
-        <v>78.599999999999994</v>
+        <v>3612.8739999999998</v>
       </c>
       <c r="I4" s="3">
-        <v>77.16</v>
+        <v>3603.9450000000002</v>
       </c>
       <c r="J4" s="3">
-        <v>77.28</v>
+        <v>3595.1869999999999</v>
       </c>
       <c r="K4" s="3">
-        <v>77.5</v>
+        <v>3585.2089999999998</v>
       </c>
       <c r="L4" s="3">
-        <v>78</v>
+        <v>3576.91</v>
       </c>
       <c r="M4" s="3">
-        <v>78.599999999999994</v>
+        <v>3570.1080000000002</v>
       </c>
       <c r="N4" s="3">
-        <v>78.8</v>
+        <v>3565.6039999999998</v>
       </c>
       <c r="O4" s="3">
-        <v>79.400000000000006</v>
+        <v>3562.0450000000001</v>
       </c>
       <c r="P4" s="3">
-        <v>79.8</v>
+        <v>3559.9859999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>79.7</v>
+        <v>3559.5189999999998</v>
       </c>
       <c r="R4" s="3">
-        <v>80.099999999999994</v>
+        <v>3558.5659999999998</v>
       </c>
       <c r="S4" s="3">
-        <v>80.099999999999994</v>
+        <v>3556.3969999999999</v>
       </c>
       <c r="T4" s="3">
-        <v>79.7</v>
+        <v>2835.9780000000001</v>
       </c>
       <c r="U4" s="3">
-        <v>80.099999999999994</v>
+        <v>2803.1860000000001</v>
       </c>
       <c r="V4" s="3">
-        <v>80</v>
+        <v>2755.1889999999999</v>
       </c>
       <c r="W4" s="3">
-        <v>80.5</v>
+        <v>2707.203</v>
       </c>
       <c r="X4" s="3">
-        <v>80.599999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3781</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3798</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3828</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3832</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3842</v>
-      </c>
-      <c r="J5" s="3">
-        <v>3843</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3842.7620000000002</v>
-      </c>
-      <c r="L5" s="3">
-        <v>3842.942</v>
-      </c>
-      <c r="M5" s="3">
-        <v>3842.2649999999999</v>
-      </c>
-      <c r="N5" s="3">
-        <v>3843</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3843.1260000000002</v>
-      </c>
-      <c r="P5" s="3">
-        <v>3839.7370000000001</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>3836.377</v>
-      </c>
-      <c r="R5" s="3">
-        <v>3531.1590000000001</v>
-      </c>
-      <c r="S5" s="3">
-        <v>3526</v>
-      </c>
-      <c r="T5" s="3">
-        <v>3518</v>
-      </c>
-      <c r="U5" s="3">
-        <v>3511</v>
-      </c>
-      <c r="V5" s="3">
-        <v>3504</v>
-      </c>
-      <c r="W5" s="3">
-        <v>3496</v>
-      </c>
-      <c r="X5" s="3">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
-        <v>64.2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="G6" s="3">
-        <v>65</v>
-      </c>
-      <c r="H6" s="3">
-        <v>65.8</v>
-      </c>
-      <c r="I6" s="3">
-        <v>66.3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="K6" s="3">
-        <v>66.8</v>
-      </c>
-      <c r="L6" s="3">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="M6" s="3">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="N6" s="3">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="O6" s="3">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="P6" s="3">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>69.8</v>
-      </c>
-      <c r="R6" s="3">
-        <v>70</v>
-      </c>
-      <c r="S6" s="3">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="T6" s="3">
-        <v>70.7</v>
-      </c>
-      <c r="U6" s="3">
-        <v>70.7</v>
-      </c>
-      <c r="V6" s="3">
-        <v>71.2</v>
-      </c>
-      <c r="W6" s="3">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="X6" s="3">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>69.7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>70.2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>70.7</v>
-      </c>
-      <c r="H7" s="3">
-        <v>71.2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>71.7</v>
-      </c>
-      <c r="J7" s="3">
-        <v>72.2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>72.2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>72.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>73.3</v>
-      </c>
-      <c r="N7" s="3">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="O7" s="3">
-        <v>74.5</v>
-      </c>
-      <c r="P7" s="3">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>75.3</v>
-      </c>
-      <c r="R7" s="3">
-        <v>75.5</v>
-      </c>
-      <c r="S7" s="3">
-        <v>75.8</v>
-      </c>
-      <c r="T7" s="3">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="U7" s="3">
-        <v>76.2</v>
-      </c>
-      <c r="V7" s="3">
-        <v>76.5</v>
-      </c>
-      <c r="W7" s="3">
-        <v>76.8</v>
-      </c>
-      <c r="X7" s="3">
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1588</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1589</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1590</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1591</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1592.0239999999999</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1622.239</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1651.011</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1678.355</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1719.575</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1747.3589999999999</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1775</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1796.413</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1807.126</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1818.1189999999999</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1812.788</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1788.2739999999999</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1777.568</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1791.019</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1797.086</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1788.8910000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3639.5920000000001</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3631.462</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3623.0619999999999</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3612.8739999999998</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3603.9450000000002</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3595.1869999999999</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3585.2089999999998</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3576.91</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3570.1080000000002</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3565.6039999999998</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3562.0450000000001</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3559.9859999999999</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>3559.5189999999998</v>
-      </c>
-      <c r="R9" s="3">
-        <v>3558.5659999999998</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3556.3969999999999</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2835.9780000000001</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2803.1860000000001</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2755.1889999999999</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2707.203</v>
-      </c>
-      <c r="X9" s="3">
         <v>2664.2240000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3">
-        <v>63.87</v>
-      </c>
-      <c r="F10" s="3">
-        <v>64.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="H10" s="3">
-        <v>64.47</v>
-      </c>
-      <c r="I10" s="3">
-        <v>64.5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>63.84</v>
-      </c>
-      <c r="K10" s="3">
-        <v>64.569999999999993</v>
-      </c>
-      <c r="L10" s="3">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="M10" s="3">
-        <v>65.55</v>
-      </c>
-      <c r="N10" s="3">
-        <v>65.31</v>
-      </c>
-      <c r="O10" s="3">
-        <v>65</v>
-      </c>
-      <c r="P10" s="3">
-        <v>66.819999999999993</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>67.239999999999995</v>
-      </c>
-      <c r="R10" s="3">
-        <v>68.05</v>
-      </c>
-      <c r="S10" s="3">
-        <v>67.5</v>
-      </c>
-      <c r="T10" s="3">
-        <v>65.3</v>
-      </c>
-      <c r="U10" s="3">
-        <v>65.7</v>
-      </c>
-      <c r="V10" s="3">
-        <v>66.7</v>
-      </c>
-      <c r="W10" s="3">
-        <v>66.3</v>
-      </c>
-      <c r="X10" s="3">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3">
-        <v>71.22</v>
-      </c>
-      <c r="F11" s="3">
-        <v>71.75</v>
-      </c>
-      <c r="G11" s="3">
-        <v>71.709999999999994</v>
-      </c>
-      <c r="H11" s="3">
-        <v>71.64</v>
-      </c>
-      <c r="I11" s="3">
-        <v>72.16</v>
-      </c>
-      <c r="J11" s="3">
-        <v>71.66</v>
-      </c>
-      <c r="K11" s="3">
-        <v>72.23</v>
-      </c>
-      <c r="L11" s="3">
-        <v>72.56</v>
-      </c>
-      <c r="M11" s="3">
-        <v>73.17</v>
-      </c>
-      <c r="N11" s="3">
-        <v>73.37</v>
-      </c>
-      <c r="O11" s="3">
-        <v>73.41</v>
-      </c>
-      <c r="P11" s="3">
-        <v>74.92</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="R11" s="3">
-        <v>75.55</v>
-      </c>
-      <c r="S11" s="3">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="T11" s="3">
-        <v>73.7</v>
-      </c>
-      <c r="U11" s="3">
-        <v>74.2</v>
-      </c>
-      <c r="V11" s="3">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="W11" s="3">
-        <v>75</v>
-      </c>
-      <c r="X11" s="3">
-        <v>75.2</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Thesis_project/01_data-input/wiiw/pop_lifexp.xlsx
+++ b/Thesis_project/01_data-input/wiiw/pop_lifexp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA21AEB2-82FB-4FDE-9DD9-38B1C46B7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C741FC2-D575-4B45-936A-3C25E81460B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,12 +193,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,9 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1646,7 +1655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1938,20 +1947,20 @@
       <c r="S4" s="3">
         <v>3556.3969999999999</v>
       </c>
-      <c r="T4" s="3">
-        <v>2835.9780000000001</v>
-      </c>
-      <c r="U4" s="3">
-        <v>2803.1860000000001</v>
-      </c>
-      <c r="V4" s="3">
-        <v>2755.1889999999999</v>
-      </c>
-      <c r="W4" s="3">
-        <v>2707.203</v>
-      </c>
-      <c r="X4" s="3">
-        <v>2664.2240000000002</v>
+      <c r="T4" s="6">
+        <v>3554.1080000000002</v>
+      </c>
+      <c r="U4" s="6">
+        <v>3551.9540000000002</v>
+      </c>
+      <c r="V4" s="6">
+        <v>3549.1959999999999</v>
+      </c>
+      <c r="W4" s="6">
+        <v>3545.1239999999998</v>
+      </c>
+      <c r="X4" s="6">
+        <v>3542.7080000000001</v>
       </c>
     </row>
   </sheetData>
